--- a/sql/concessions.xlsx
+++ b/sql/concessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789BAF2A-4749-4D01-8616-6322969494F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB4CEC6-F66C-4F99-879D-FE1395CC54C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3803" yWindow="2415" windowWidth="21600" windowHeight="11423" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
+    <workbookView xWindow="510" yWindow="2550" windowWidth="25110" windowHeight="11423" xr2:uid="{25D2EDE8-8B07-4C75-8BDC-6F39246746F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Forename</t>
   </si>
@@ -282,14 +282,33 @@
   </si>
   <si>
     <t>Feng</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Edward Gomez Quiroga</t>
+  </si>
+  <si>
+    <t>FlightInTime</t>
+  </si>
+  <si>
+    <t>FlightOutTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -320,16 +339,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
@@ -348,13 +374,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
-  <autoFilter ref="A1:E45" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0">
+  <autoFilter ref="A1:G47" xr:uid="{B6569209-6B5F-43F1-9165-D98334A432B5}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{494946AB-858E-454F-A4FF-3F5835CDCAB3}" name="Forename"/>
     <tableColumn id="2" xr3:uid="{2E848B5A-F926-4B46-8857-E41B0A5B9FA7}" name="Surname"/>
-    <tableColumn id="3" xr3:uid="{CC635D0E-097D-4D0D-97F8-AF5F556DC867}" name="CheckInDate" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BB60E278-9EF2-4054-B021-62BD30D6CF62}" name="CheckOutDate" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CC635D0E-097D-4D0D-97F8-AF5F556DC867}" name="CheckInDate" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1EE68E4F-F4D7-47AA-8F80-E30E021BF105}" name="FlightInTime" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BB60E278-9EF2-4054-B021-62BD30D6CF62}" name="CheckOutDate" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B46EBC16-AF4D-4328-BC34-3AE728ECE613}" name="FlightOutTime" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{7B63B4B5-BDF0-40CB-BEA8-2FF0A521111B}" name="Staff"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -678,22 +706,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32253C30-0F5E-41AD-A010-AEA2FCB02B7D}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,14 +733,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -720,14 +756,20 @@
       <c r="C2" s="1">
         <v>45596</v>
       </c>
-      <c r="D2" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D2" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -737,14 +779,14 @@
       <c r="C3" s="1">
         <v>45596</v>
       </c>
-      <c r="D3" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -754,14 +796,14 @@
       <c r="C4" s="1">
         <v>45596</v>
       </c>
-      <c r="D4" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E4" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -771,14 +813,14 @@
       <c r="C5" s="1">
         <v>45596</v>
       </c>
-      <c r="D5" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -788,14 +830,14 @@
       <c r="C6" s="1">
         <v>45596</v>
       </c>
-      <c r="D6" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -805,14 +847,14 @@
       <c r="C7" s="1">
         <v>45596</v>
       </c>
-      <c r="D7" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -822,14 +864,14 @@
       <c r="C8" s="1">
         <v>45596</v>
       </c>
-      <c r="D8" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -839,14 +881,14 @@
       <c r="C9" s="1">
         <v>45596</v>
       </c>
-      <c r="D9" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -856,28 +898,28 @@
       <c r="C10" s="1">
         <v>45596</v>
       </c>
-      <c r="D10" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>45596</v>
       </c>
-      <c r="D11" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -887,14 +929,20 @@
       <c r="C12" s="1">
         <v>45596</v>
       </c>
-      <c r="D12" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -904,14 +952,14 @@
       <c r="C13" s="1">
         <v>45596</v>
       </c>
-      <c r="D13" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -921,14 +969,14 @@
       <c r="C14" s="1">
         <v>45596</v>
       </c>
-      <c r="D14" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -938,14 +986,14 @@
       <c r="C15" s="1">
         <v>45596</v>
       </c>
-      <c r="D15" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -955,28 +1003,28 @@
       <c r="C16" s="1">
         <v>45596</v>
       </c>
-      <c r="D16" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>45596</v>
       </c>
-      <c r="D17" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -986,448 +1034,524 @@
       <c r="C18" s="1">
         <v>45596</v>
       </c>
-      <c r="D18" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E18" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="C20" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D20" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="C21" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="C22" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="C23" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D23" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="C24" s="1">
+        <v>45596</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D24" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="C25" s="1">
+        <v>45596</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D25" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="C26" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D26" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="C27" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D27" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="C28" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D28" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="C29" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D29" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="C30" s="1">
+        <v>45596</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D30" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E30">
+      <c r="C31" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D31" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="C32" s="1">
+        <v>45596</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D32" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="C33" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D33" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="C34" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D34" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="C35" s="1">
+        <v>45596</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D35" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="C36" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D36" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="C37" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D37" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="C38" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>45597</v>
       </c>
-      <c r="D38" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="E39" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D39" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="C40" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45600</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>67</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D40" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="C41" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D41" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="C42" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D42" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="C44" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>72</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D43" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="C45" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>74</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D44" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="C46" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="1">
-        <v>45596</v>
-      </c>
-      <c r="D45" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E45">
+      <c r="C47" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G47">
         <v>1</v>
       </c>
     </row>
